--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>AYLIN MELISSA</t>
   </si>
 </sst>
 </file>
@@ -782,7 +809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +842,75 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920082</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920069</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,12 @@
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
     <t>OFICIAL</t>
   </si>
   <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
+  </si>
+  <si>
     <t>CORDOBA</t>
   </si>
   <si>
@@ -95,6 +107,12 @@
   </si>
   <si>
     <t>SAID ANDRES</t>
+  </si>
+  <si>
+    <t>JESUS SAMUEL</t>
+  </si>
+  <si>
+    <t>EVELYN AISHA</t>
   </si>
   <si>
     <t>FRANCISCO JAVIER</t>
@@ -809,7 +827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -867,47 +885,93 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920108</v>
+        <v>20330051920323</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920069</v>
+        <v>19330051920358</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920069</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G6">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
+++ b/docentes/Camacho Juárez Sergio Eduardo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -79,43 +79,25 @@
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
     <t>OFICIAL</t>
   </si>
   <si>
-    <t>LEON</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>SAID ANDRES</t>
   </si>
   <si>
-    <t>JESUS SAMUEL</t>
-  </si>
-  <si>
     <t>EVELYN AISHA</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER</t>
   </si>
   <si>
     <t>AYLIN MELISSA</t>
@@ -522,19 +504,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>39.39</v>
+        <v>42.42</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,19 +530,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="H3">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,19 +556,19 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>64.86</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +627,7 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -668,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -691,7 +673,7 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -753,19 +735,19 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>39.39</v>
+        <v>42.42</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -779,19 +761,19 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="H3">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -805,19 +787,19 @@
         <v>37</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>64.86</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,10 +850,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -885,22 +867,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920323</v>
+        <v>19330051920358</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -908,70 +890,24 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920358</v>
+        <v>20330051920069</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920069</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
         <v>6</v>
       </c>
     </row>
